--- a/EV cost.xlsx
+++ b/EV cost.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Car</t>
   </si>
   <si>
     <t>Inverter/motor/GEVCU</t>
+  </si>
+  <si>
+    <t>Relays/ampseal/BLE</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -381,9 +384,17 @@
       </c>
     </row>
     <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
       <c r="B3">
-        <f>SUM(B1:B2)</f>
-        <v>7299</v>
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4">
+        <f>SUM(B1:B3)</f>
+        <v>7344.7</v>
       </c>
     </row>
   </sheetData>
